--- a/HelaMedical/File/NarcoDataBase.xlsx
+++ b/HelaMedical/File/NarcoDataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\HelaMedical\HelaMedical\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HelaMedical\HelaMedical\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="253">
   <si>
     <t>Id</t>
   </si>
@@ -193,64 +193,598 @@
     <t xml:space="preserve">регистратор </t>
   </si>
   <si>
-    <t>lsjhdgcj</t>
-  </si>
-  <si>
     <t>Мужской</t>
   </si>
   <si>
-    <t>savc</t>
-  </si>
-  <si>
     <t>Город</t>
   </si>
   <si>
-    <t>sdv</t>
-  </si>
-  <si>
     <t>Холост</t>
   </si>
   <si>
     <t>Проживал один/одна</t>
   </si>
   <si>
-    <t>Начальное</t>
-  </si>
-  <si>
-    <t>sdvc</t>
-  </si>
-  <si>
     <t>Физический труд</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>System.Collections.Generic.List`1[HelaMedical.Incitalization]</t>
-  </si>
-  <si>
-    <t>,jzxvjkhcv</t>
-  </si>
-  <si>
-    <t>mbdcv</t>
-  </si>
-  <si>
-    <t>m,nxnbdvn</t>
-  </si>
-  <si>
-    <t>26.10.1988</t>
-  </si>
-  <si>
-    <t>sac</t>
-  </si>
-  <si>
-    <t>zv,.n b</t>
-  </si>
-  <si>
-    <t>26.10.2000</t>
-  </si>
-  <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Коновал Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>Гомельская обл</t>
+  </si>
+  <si>
+    <t>Рогачевский р-н</t>
+  </si>
+  <si>
+    <t>ул.Зайцева, 1а/4</t>
+  </si>
+  <si>
+    <t>В браке</t>
+  </si>
+  <si>
+    <t>Проживал в семье</t>
+  </si>
+  <si>
+    <t>Среднее специальное (Колледж, Техникум)</t>
+  </si>
+  <si>
+    <t>грузчик</t>
+  </si>
+  <si>
+    <t>Выявление милицией</t>
+  </si>
+  <si>
+    <t>Не отягощена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работает. </t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 1 раз. УЗ «Рогачевская центральная районная больница» 1 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Туберкулезю Гепатит С. </t>
+  </si>
+  <si>
+    <t>J18 левосторонняя пневмония. ЛСН</t>
+  </si>
+  <si>
+    <t>Ненасильственная</t>
+  </si>
+  <si>
+    <t>панкреатит</t>
+  </si>
+  <si>
+    <t>алкалоиды опия, барбитураты, каннабиноиды, амфетамин</t>
+  </si>
+  <si>
+    <t>Парентерально</t>
+  </si>
+  <si>
+    <t>Более 15 лет</t>
+  </si>
+  <si>
+    <t>Cпонтанные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12.1. </t>
+  </si>
+  <si>
+    <t>Мосейчук Сергей Васильевич</t>
+  </si>
+  <si>
+    <t>ул.Ленина, 76/49</t>
+  </si>
+  <si>
+    <t>Проживал с одним родителем</t>
+  </si>
+  <si>
+    <t>Незаконченное высшее</t>
+  </si>
+  <si>
+    <t>фармовщик</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>По соматическому заболеванию</t>
+  </si>
+  <si>
+    <t>ВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗ «Рогачевская центральная районная больница» 1 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гепатит С. ВИЧ. </t>
+  </si>
+  <si>
+    <t>алкалоиды опия, каннабиноиды</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тукаев Юрий Васильевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул.Пушкина, 19 </t>
+  </si>
+  <si>
+    <t>Разведен</t>
+  </si>
+  <si>
+    <t>Среднее полное</t>
+  </si>
+  <si>
+    <t>не работает</t>
+  </si>
+  <si>
+    <t>Не уточнено</t>
+  </si>
+  <si>
+    <t>ул.Матросова,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не работает. </t>
+  </si>
+  <si>
+    <t>хр.наркотиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 2 раз. УЗ «Рогачевская центральная районная больница» 1 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ. </t>
+  </si>
+  <si>
+    <t>F10.71, F10.21, F10.40 крыса в голове</t>
+  </si>
+  <si>
+    <t>опий, героин</t>
+  </si>
+  <si>
+    <t>Более 10 лет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12.9. </t>
+  </si>
+  <si>
+    <t>Немченко Владимир Федорович</t>
+  </si>
+  <si>
+    <t>Деревня</t>
+  </si>
+  <si>
+    <t>Рогачевский р-н, д.Староселье, ул.Крестьянская, 19</t>
+  </si>
+  <si>
+    <t>Вдовец/Вдова</t>
+  </si>
+  <si>
+    <t>пенсионер</t>
+  </si>
+  <si>
+    <t>Другое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неработающий пенсионер. </t>
+  </si>
+  <si>
+    <t>F13.2</t>
+  </si>
+  <si>
+    <t>снотворные</t>
+  </si>
+  <si>
+    <t>Перорально</t>
+  </si>
+  <si>
+    <t>Более 5 лет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F13.1. </t>
+  </si>
+  <si>
+    <t>Витковский Евгений Васильевич</t>
+  </si>
+  <si>
+    <t>д.Старое Село, ул.Советская, 12/4</t>
+  </si>
+  <si>
+    <t>Самостоятельное обращение</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗ «Рогачевская центральная районная больница» 2 раз. </t>
+  </si>
+  <si>
+    <t>I25.1 АБС</t>
+  </si>
+  <si>
+    <t>Ерощенко Елена Ивановна</t>
+  </si>
+  <si>
+    <t>Женский</t>
+  </si>
+  <si>
+    <t>ул. Октября, 18а/57</t>
+  </si>
+  <si>
+    <t>Незаконченное среднее (Базовое)</t>
+  </si>
+  <si>
+    <t>врожденная недостаточность митрального клапана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗ «Рогачевская центральная районная больница» 3 раз. </t>
+  </si>
+  <si>
+    <t>I34 врожденная недостаточность митрального клапана</t>
+  </si>
+  <si>
+    <t>транквилизатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Юрчак (Качанова-Парецкая) Жанна Анатольевна</t>
+  </si>
+  <si>
+    <t>Светлогорский р-н</t>
+  </si>
+  <si>
+    <t>г.Светлогорск, м-н 3, д.59, кв.2</t>
+  </si>
+  <si>
+    <t>Второй и последующий брак</t>
+  </si>
+  <si>
+    <t>продавец</t>
+  </si>
+  <si>
+    <t>Полуавтоматический труд</t>
+  </si>
+  <si>
+    <t>г.Светлогорск, м-н 2, д.7, кв.38</t>
+  </si>
+  <si>
+    <t>Протокол экстренного алкогольного (наркотического) освидетельствования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 1 раз. УЗ «Светлогорская центральная районная больница» 3 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гепатит Б. </t>
+  </si>
+  <si>
+    <t>R99</t>
+  </si>
+  <si>
+    <t>отвар маковой соломки, морфин, кодеин, димедрол, эфедрон</t>
+  </si>
+  <si>
+    <t>Терапевтические</t>
+  </si>
+  <si>
+    <t>Алексеев Александр Николаевич</t>
+  </si>
+  <si>
+    <t>м-н 1, д.60а, кв.14</t>
+  </si>
+  <si>
+    <t>строитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 1 раз. УЗ «Светлогорская центральная районная больница» 2 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ множ. </t>
+  </si>
+  <si>
+    <t>опий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11.1.F11.24. </t>
+  </si>
+  <si>
+    <t>Кудинова Татьяна Ивановна</t>
+  </si>
+  <si>
+    <t>00.00.1976</t>
+  </si>
+  <si>
+    <t>м-н 4, д.1, кв.137</t>
+  </si>
+  <si>
+    <t>Проживал с родителями</t>
+  </si>
+  <si>
+    <t>наркотики, кража</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 2 раз. УЗ «Светлогорская центральная районная больница» 2 раз. </t>
+  </si>
+  <si>
+    <t>УЗ</t>
+  </si>
+  <si>
+    <t>K74.6 цирроз печени</t>
+  </si>
+  <si>
+    <t>метадон, суррогат опия</t>
+  </si>
+  <si>
+    <t>до года</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11.1.F11.24. F14.24. </t>
+  </si>
+  <si>
+    <t>Ставратов Валерий Николаевич</t>
+  </si>
+  <si>
+    <t>м-н 3, д.3, кв.170</t>
+  </si>
+  <si>
+    <t>столяр</t>
+  </si>
+  <si>
+    <t>за наркотики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ множ. Гепатит С. ВИЧ. </t>
+  </si>
+  <si>
+    <t>Дрогое место</t>
+  </si>
+  <si>
+    <t>T71 повешение</t>
+  </si>
+  <si>
+    <t>Суицид</t>
+  </si>
+  <si>
+    <t>героин, мак</t>
+  </si>
+  <si>
+    <t>7 мес.</t>
+  </si>
+  <si>
+    <t>F11.1.</t>
+  </si>
+  <si>
+    <t>Чернейко Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t>00.00.1980</t>
+  </si>
+  <si>
+    <t>м-н 1, д.42, кв.57</t>
+  </si>
+  <si>
+    <t>плотник-бетонщик</t>
+  </si>
+  <si>
+    <t>Светлогородский р-н, д.Осов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 2 раз. УЗ «Светлогорская центральная районная больница» 3 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гепатит Б. Гепатит С. </t>
+  </si>
+  <si>
+    <t>A15 генерализ.туберкулез, милиарный туберкулез оегких</t>
+  </si>
+  <si>
+    <t>эфедрон, барбитураты, димедрол, марихуана</t>
+  </si>
+  <si>
+    <t>5 мес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11.1.F11.24. F12.1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потапенко Илья Игоревич </t>
+  </si>
+  <si>
+    <t>р-н Первомайский, 33/46</t>
+  </si>
+  <si>
+    <t>сварщик</t>
+  </si>
+  <si>
+    <t>Сообщение любого УЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКНД 1 раз. УЗ «Светлогорская центральная районная больница» 1 раз. </t>
+  </si>
+  <si>
+    <t>J18 левостороння пневмония</t>
+  </si>
+  <si>
+    <t>Патологоанатомическое бюро</t>
+  </si>
+  <si>
+    <t>мак</t>
+  </si>
+  <si>
+    <t>Более 2 лет</t>
+  </si>
+  <si>
+    <t>Кохонов Андрей Васильевич</t>
+  </si>
+  <si>
+    <t>м-н 2, д.20, кв.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работает эпизодически. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ. Туберкулезю Гепатит С. ВИЧ. </t>
+  </si>
+  <si>
+    <t>03.06.2014(Ориентировачная)</t>
+  </si>
+  <si>
+    <t>B12 ВИЧ</t>
+  </si>
+  <si>
+    <t>опиаты, димедрол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11.1.F11.9. </t>
+  </si>
+  <si>
+    <t>Данилин Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Светлогородский р-н, д.Ковчицы-2, ул.Колконова, 79</t>
+  </si>
+  <si>
+    <t>слесарь</t>
+  </si>
+  <si>
+    <t>Материнская линия</t>
+  </si>
+  <si>
+    <t>87, 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РКПБ/РНПЦ 2 раз. УЗ «Светлогорская центральная районная больница» 1 раз. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ. Гепатит С. </t>
+  </si>
+  <si>
+    <t>C22 печеночный клеточный рак</t>
+  </si>
+  <si>
+    <t>отвар мака, реланиум, димедрол</t>
+  </si>
+  <si>
+    <t>Андросов Игорь Алексеевич</t>
+  </si>
+  <si>
+    <t>м-н 2, д.11, кв.4</t>
+  </si>
+  <si>
+    <t>рабочий</t>
+  </si>
+  <si>
+    <t>мошенничество, кражи, наркотики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧМТ. Гепатит С. ВИЧ. </t>
+  </si>
+  <si>
+    <t>Дома</t>
+  </si>
+  <si>
+    <t>героин, метадон, "винт"</t>
+  </si>
+  <si>
+    <t>Рудницкий Геннадий Иванович</t>
+  </si>
+  <si>
+    <t>м-н 3, д.41, кв.15</t>
+  </si>
+  <si>
+    <t>м-н 2, д.32, кв.37</t>
+  </si>
+  <si>
+    <t>м-н 2, д.42, кв.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗ «Светлогорская центральная районная больница» 3 раз. </t>
+  </si>
+  <si>
+    <t>опий, димедрол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11.20.  F12.9. </t>
+  </si>
+  <si>
+    <t>Бачура Наталья Евгеньевна</t>
+  </si>
+  <si>
+    <t>м-н 2, д.3, кв.40</t>
+  </si>
+  <si>
+    <t>опий, героин, мак соломку, метадон, винт</t>
+  </si>
+  <si>
+    <t>3 года + 1,5 года</t>
+  </si>
+  <si>
+    <t>Куртиян Юлия Михайловна</t>
+  </si>
+  <si>
+    <t>м-н 3, д.38, кв.91</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>Проживал вместе с детьми</t>
+  </si>
+  <si>
+    <t>гардеробщица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗ «Светлогорская центральная районная больница» 2 раз. </t>
+  </si>
+  <si>
+    <t>наркотическая кома</t>
+  </si>
+  <si>
+    <t>4 года</t>
+  </si>
+  <si>
+    <t>Чаша Виктор Иванович</t>
+  </si>
+  <si>
+    <t>00.00.1970</t>
+  </si>
+  <si>
+    <t>м-н 2, д.27, кв.25</t>
+  </si>
+  <si>
+    <t>водитель</t>
+  </si>
+  <si>
+    <t>ул.Комсомольская, 16</t>
+  </si>
+  <si>
+    <t>Другое(напр. племянник)</t>
+  </si>
+  <si>
+    <t>2 мес</t>
+  </si>
+  <si>
+    <t>328/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РКПБ/РНПЦ 3 раз. УЗ «Светлогорская центральная районная больница» 2 раз. </t>
+  </si>
+  <si>
+    <t>метадон, опий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11.1.F14.1. </t>
+  </si>
+  <si>
+    <t>Год учета</t>
   </si>
 </sst>
 </file>
@@ -295,11 +829,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -580,15 +1115,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC4"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="36" max="36" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,169 +1293,2193 @@
         <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2">
+        <v>26678</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>37925</v>
+      </c>
+      <c r="S2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2">
+        <v>7</v>
+      </c>
+      <c r="AA2">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>41750</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU2">
+        <v>1991</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>2003</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA2">
+        <v>30</v>
+      </c>
+      <c r="BB2">
+        <v>41</v>
+      </c>
+      <c r="BD2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23859</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="Q3" s="2">
+        <v>36390</v>
+      </c>
+      <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>42117</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU3">
+        <v>1998</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA3">
+        <v>34</v>
+      </c>
+      <c r="BB3">
+        <v>50</v>
+      </c>
+      <c r="BD3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2">
+        <v>24975</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>41364</v>
+      </c>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>42518</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU4">
+        <v>2000</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA4">
+        <v>45</v>
+      </c>
+      <c r="BB4">
+        <v>48</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11914</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>41397</v>
+      </c>
+      <c r="S5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>42375</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU5">
+        <v>2012</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA5">
+        <v>81</v>
+      </c>
+      <c r="BB5">
+        <v>84</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15527</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>41319</v>
+      </c>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>125</v>
+      </c>
+      <c r="V6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>42750</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU6">
+        <v>2011</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA6">
+        <v>71</v>
+      </c>
+      <c r="BB6">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22717</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>39995</v>
+      </c>
+      <c r="S7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>125</v>
+      </c>
+      <c r="V7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W7" t="s">
+        <v>132</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>42808</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU7">
+        <v>2008</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA7">
+        <v>47</v>
+      </c>
+      <c r="BB7">
+        <v>55</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="2">
+        <v>26937</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>35299</v>
+      </c>
+      <c r="S8" t="s">
+        <v>143</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC8">
+        <v>205</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>41945</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU8">
+        <v>1993</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA8">
+        <v>23</v>
+      </c>
+      <c r="BB8">
+        <v>41</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2">
+        <v>27189</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>35354</v>
+      </c>
+      <c r="S9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>41757</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU9">
+        <v>1995</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA9">
+        <v>22</v>
+      </c>
+      <c r="BB9">
+        <v>40</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>35234</v>
+      </c>
+      <c r="S10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>41835</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU10">
+        <v>1996</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX10">
+        <v>5</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA10">
+        <v>20</v>
+      </c>
+      <c r="BB10">
+        <v>38</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2">
+        <v>27594</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>35389</v>
+      </c>
+      <c r="S11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>41887</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU11">
+        <v>1990</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA11">
+        <v>21</v>
+      </c>
+      <c r="BB11">
+        <v>39</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>37009</v>
+      </c>
+      <c r="S12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" t="s">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12">
+        <v>209</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>41569</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU12">
+        <v>2000</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA12">
+        <v>21</v>
+      </c>
+      <c r="BB12">
+        <v>33</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2">
+        <v>33674</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>41764</v>
+      </c>
+      <c r="S13" t="s">
+        <v>192</v>
+      </c>
+      <c r="T13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>41905</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU13">
+        <v>2000</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA13">
+        <v>22</v>
+      </c>
+      <c r="BB13">
+        <v>22</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2">
+        <v>26795</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>34563</v>
+      </c>
+      <c r="S14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU14">
+        <v>1990</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA14">
+        <v>21</v>
+      </c>
+      <c r="BB14">
+        <v>41</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2">
+        <v>26096</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>33150</v>
+      </c>
+      <c r="S15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>41899</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU15">
+        <v>1998</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA15">
+        <v>19</v>
+      </c>
+      <c r="BB15">
+        <v>43</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25938</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>40616</v>
+      </c>
+      <c r="S16" t="s">
+        <v>192</v>
+      </c>
+      <c r="T16" t="s">
         <v>71</v>
       </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4">
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>16</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>42156</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU16">
+        <v>1984</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX16">
+        <v>5</v>
+      </c>
+      <c r="AY16">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AZ16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA16">
+        <v>40</v>
+      </c>
+      <c r="BB16">
+        <v>44</v>
+      </c>
+      <c r="BD16" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2">
+        <v>26177</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" t="s">
+        <v>224</v>
+      </c>
+      <c r="P17" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>33939</v>
+      </c>
+      <c r="S17" t="s">
+        <v>192</v>
+      </c>
+      <c r="T17" t="s">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s">
         <v>72</v>
       </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17" t="s">
         <v>73</v>
       </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>12</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>74</v>
+      <c r="AC17">
+        <v>219</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>42019</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU17">
+        <v>1992</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA17">
+        <v>21</v>
+      </c>
+      <c r="BB17">
+        <v>44</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="2">
+        <v>27710</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>37921</v>
+      </c>
+      <c r="S18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>42046</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU18">
+        <v>1996</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA18">
+        <v>28</v>
+      </c>
+      <c r="BB18">
+        <v>40</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30308</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" t="s">
+        <v>237</v>
+      </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>37153</v>
+      </c>
+      <c r="R19" s="2">
+        <v>41820</v>
+      </c>
+      <c r="S19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T19" t="s">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>42157</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU19">
+        <v>1990</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA19">
+        <v>19</v>
+      </c>
+      <c r="BB19">
+        <v>33</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" t="s">
+        <v>244</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>31833</v>
+      </c>
+      <c r="S20" t="s">
+        <v>124</v>
+      </c>
+      <c r="T20" t="s">
+        <v>246</v>
+      </c>
+      <c r="U20" t="s">
+        <v>89</v>
+      </c>
+      <c r="V20" t="s">
+        <v>90</v>
+      </c>
+      <c r="X20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>42025</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ20">
+        <v>2015</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU20">
+        <v>1994</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA20">
+        <v>17</v>
+      </c>
+      <c r="BB20">
+        <v>45</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
